--- a/competitions/answer/analysis/xtemp/evaluation_xtemp.xlsx
+++ b/competitions/answer/analysis/xtemp/evaluation_xtemp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/0x1af/dev/promptrank/competitions/hallucination/analysis/xtemp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/0x1af/dev/promptrank/competitions/answer/analysis/xtemp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F096DE58-671D-E344-842C-63DAB4B3B858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8858210C-A438-2E45-8CD1-DE9F88BADA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="5640" windowWidth="32280" windowHeight="19780" xr2:uid="{1952D3E9-D84B-F14E-B184-510410123A87}"/>
   </bookViews>
@@ -437,6 +437,24 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,24 +473,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17324,7 +17324,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17339,32 +17339,32 @@
   <sheetData>
     <row r="1" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="27" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30" t="s">
+      <c r="I2" s="37"/>
+      <c r="J2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="27" t="s">
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="27" t="s">
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
     </row>
     <row r="3" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -17423,7 +17423,7 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="5">
@@ -17442,7 +17442,7 @@
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A4,[1]Grades!$B$3:$B$50000,"="&amp;F$3)</f>
         <v>6</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="28">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A4,[1]Grades!$B$3:$B$50000,"="&amp;G$3)</f>
         <v>94</v>
       </c>
@@ -17495,26 +17495,26 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="10">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A5,[1]Grades!$B$3:$B$50000,"="&amp;C$3)</f>
         <v>165</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="27">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A5,[1]Grades!$B$3:$B$50000,"="&amp;D$3)</f>
         <v>18</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="27">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A5,[1]Grades!$B$3:$B$50000,"="&amp;E$3)</f>
         <v>21</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="29">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A5,[1]Grades!$B$3:$B$50000,"="&amp;F$3)</f>
         <v>6</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="30">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A5,[1]Grades!$B$3:$B$50000,"="&amp;G$3)</f>
         <v>90</v>
       </c>
@@ -17567,26 +17567,26 @@
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="10">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A6,[1]Grades!$B$3:$B$50000,"="&amp;C$3)</f>
         <v>163</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="27">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A6,[1]Grades!$B$3:$B$50000,"="&amp;D$3)</f>
         <v>16</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="27">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A6,[1]Grades!$B$3:$B$50000,"="&amp;E$3)</f>
         <v>23</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="29">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A6,[1]Grades!$B$3:$B$50000,"="&amp;F$3)</f>
         <v>5</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="30">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A6,[1]Grades!$B$3:$B$50000,"="&amp;G$3)</f>
         <v>93</v>
       </c>
@@ -17639,26 +17639,26 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="10">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A7,[1]Grades!$B$3:$B$50000,"="&amp;C$3)</f>
         <v>165</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="27">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A7,[1]Grades!$B$3:$B$50000,"="&amp;D$3)</f>
         <v>17</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="27">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A7,[1]Grades!$B$3:$B$50000,"="&amp;E$3)</f>
         <v>23</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="29">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A7,[1]Grades!$B$3:$B$50000,"="&amp;F$3)</f>
         <v>5</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="30">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A7,[1]Grades!$B$3:$B$50000,"="&amp;G$3)</f>
         <v>90</v>
       </c>
@@ -17711,7 +17711,7 @@
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="13">
@@ -17730,7 +17730,7 @@
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A8,[1]Grades!$B$3:$B$50000,"="&amp;F$3)</f>
         <v>8</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="31">
         <f>COUNTIFS([1]Grades!$A$3:$A$50000,"="&amp;$A8,[1]Grades!$B$3:$B$50000,"="&amp;G$3)</f>
         <v>80</v>
       </c>
